--- a/data/pca/factorExposure/factorExposure_2011-09-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02153884413231762</v>
+        <v>0.01742094950945803</v>
       </c>
       <c r="C2">
-        <v>0.01649232648614181</v>
+        <v>-0.008609188631499251</v>
       </c>
       <c r="D2">
-        <v>0.04347341797047343</v>
+        <v>0.0345153982410947</v>
       </c>
       <c r="E2">
-        <v>0.06727931283364343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03310518826406213</v>
+      </c>
+      <c r="F2">
+        <v>0.030851311571172</v>
+      </c>
+      <c r="G2">
+        <v>-0.003018142529004661</v>
+      </c>
+      <c r="H2">
+        <v>0.01880009071638777</v>
+      </c>
+      <c r="I2">
+        <v>-0.01726812755846318</v>
+      </c>
+      <c r="J2">
+        <v>-0.05389282091295634</v>
+      </c>
+      <c r="K2">
+        <v>-0.0645949543209377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.07972553746112102</v>
+        <v>0.09461569981202883</v>
       </c>
       <c r="C4">
-        <v>0.04755047556479861</v>
+        <v>-0.04979932861507089</v>
       </c>
       <c r="D4">
-        <v>0.04972515944703911</v>
+        <v>0.03776658152800482</v>
       </c>
       <c r="E4">
-        <v>0.01342061207072696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01071082545975341</v>
+      </c>
+      <c r="F4">
+        <v>0.07538425076559269</v>
+      </c>
+      <c r="G4">
+        <v>-0.02023600591296542</v>
+      </c>
+      <c r="H4">
+        <v>0.008043012123395267</v>
+      </c>
+      <c r="I4">
+        <v>0.07373168901616101</v>
+      </c>
+      <c r="J4">
+        <v>0.02594361646987393</v>
+      </c>
+      <c r="K4">
+        <v>0.0466038629718656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1212067733699918</v>
+        <v>0.1315827439003915</v>
       </c>
       <c r="C6">
-        <v>-0.004769727118725045</v>
+        <v>-0.006447485947707374</v>
       </c>
       <c r="D6">
-        <v>0.04623002922860672</v>
+        <v>0.06896244124616875</v>
       </c>
       <c r="E6">
-        <v>0.07485715685562699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01710087745488575</v>
+      </c>
+      <c r="F6">
+        <v>0.03551406136808478</v>
+      </c>
+      <c r="G6">
+        <v>-0.07592483877722309</v>
+      </c>
+      <c r="H6">
+        <v>-0.1892020384040949</v>
+      </c>
+      <c r="I6">
+        <v>0.0344564908333843</v>
+      </c>
+      <c r="J6">
+        <v>0.4470774841879442</v>
+      </c>
+      <c r="K6">
+        <v>0.02291386696831586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07575096135507679</v>
+        <v>0.07325893611766979</v>
       </c>
       <c r="C7">
-        <v>0.01708605917438182</v>
+        <v>-0.05199625825045674</v>
       </c>
       <c r="D7">
-        <v>0.06050653383790355</v>
+        <v>0.05392088564375336</v>
       </c>
       <c r="E7">
-        <v>0.05413307575996781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.02054452105882982</v>
+      </c>
+      <c r="F7">
+        <v>0.03106839675823791</v>
+      </c>
+      <c r="G7">
+        <v>0.01300517725060322</v>
+      </c>
+      <c r="H7">
+        <v>0.0009806855851089242</v>
+      </c>
+      <c r="I7">
+        <v>0.03782176735160137</v>
+      </c>
+      <c r="J7">
+        <v>-0.06563998579845073</v>
+      </c>
+      <c r="K7">
+        <v>0.07029940141629902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03889530820751263</v>
+        <v>0.04117186144539359</v>
       </c>
       <c r="C8">
-        <v>0.04899694077403636</v>
+        <v>-0.02196300162597263</v>
       </c>
       <c r="D8">
-        <v>-0.0100035788380579</v>
+        <v>-0.004300304969444726</v>
       </c>
       <c r="E8">
-        <v>0.05787250373323206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05922043131831657</v>
+      </c>
+      <c r="F8">
+        <v>0.05158608306572641</v>
+      </c>
+      <c r="G8">
+        <v>-0.04925078276051063</v>
+      </c>
+      <c r="H8">
+        <v>-0.01064498543142283</v>
+      </c>
+      <c r="I8">
+        <v>0.1083614159744574</v>
+      </c>
+      <c r="J8">
+        <v>0.006867548425588101</v>
+      </c>
+      <c r="K8">
+        <v>0.03652841379270905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07848670877103021</v>
+        <v>0.08637433815539498</v>
       </c>
       <c r="C9">
-        <v>0.05711140606369734</v>
+        <v>-0.05093744083263303</v>
       </c>
       <c r="D9">
-        <v>0.04424759877841988</v>
+        <v>0.03657673503821034</v>
       </c>
       <c r="E9">
-        <v>0.0196901279429725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.008304643644534563</v>
+      </c>
+      <c r="F9">
+        <v>0.05979842485789428</v>
+      </c>
+      <c r="G9">
+        <v>-0.03171998647475311</v>
+      </c>
+      <c r="H9">
+        <v>0.01139422487988648</v>
+      </c>
+      <c r="I9">
+        <v>0.08778140685342375</v>
+      </c>
+      <c r="J9">
+        <v>0.02336889834921541</v>
+      </c>
+      <c r="K9">
+        <v>0.02627801467767914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01589376783249648</v>
+        <v>0.06920061431464659</v>
       </c>
       <c r="C10">
-        <v>-0.1640751492883774</v>
+        <v>0.1977117166651267</v>
       </c>
       <c r="D10">
-        <v>-0.002244923466135156</v>
+        <v>0.02672546083510711</v>
       </c>
       <c r="E10">
-        <v>0.07816590942138255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.04087190113586946</v>
+      </c>
+      <c r="F10">
+        <v>0.03471645782349609</v>
+      </c>
+      <c r="G10">
+        <v>0.03765582236086503</v>
+      </c>
+      <c r="H10">
+        <v>-0.02022123139558662</v>
+      </c>
+      <c r="I10">
+        <v>-0.03195464663476707</v>
+      </c>
+      <c r="J10">
+        <v>-0.01872120075650618</v>
+      </c>
+      <c r="K10">
+        <v>-0.01220081413671488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07263011890688002</v>
+        <v>0.07453200766719222</v>
       </c>
       <c r="C11">
-        <v>0.06043191955432331</v>
+        <v>-0.05951044935692964</v>
       </c>
       <c r="D11">
-        <v>0.03454248199866928</v>
+        <v>0.0334136661817017</v>
       </c>
       <c r="E11">
-        <v>0.0364893208432039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01582087987218395</v>
+      </c>
+      <c r="F11">
+        <v>0.02539905194531683</v>
+      </c>
+      <c r="G11">
+        <v>-0.05274676715232938</v>
+      </c>
+      <c r="H11">
+        <v>0.03195419783217121</v>
+      </c>
+      <c r="I11">
+        <v>0.0779554851612034</v>
+      </c>
+      <c r="J11">
+        <v>-0.0495307317788272</v>
+      </c>
+      <c r="K11">
+        <v>-0.04784848445111869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0703163513182755</v>
+        <v>0.07335033143881249</v>
       </c>
       <c r="C12">
-        <v>0.04559051659862715</v>
+        <v>-0.04817802003578013</v>
       </c>
       <c r="D12">
-        <v>0.0416151180575071</v>
+        <v>0.02850202052604677</v>
       </c>
       <c r="E12">
-        <v>0.03028826893255712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.008178027556908661</v>
+      </c>
+      <c r="F12">
+        <v>0.03730366601331489</v>
+      </c>
+      <c r="G12">
+        <v>-0.03987811363395728</v>
+      </c>
+      <c r="H12">
+        <v>0.008646365265291861</v>
+      </c>
+      <c r="I12">
+        <v>0.09142654703781733</v>
+      </c>
+      <c r="J12">
+        <v>-0.05374855783011158</v>
+      </c>
+      <c r="K12">
+        <v>-0.02421792745082862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08220292454474688</v>
+        <v>0.06995633197173268</v>
       </c>
       <c r="C13">
-        <v>0.03063942144510176</v>
+        <v>-0.03744173719436186</v>
       </c>
       <c r="D13">
-        <v>0.02672162210160161</v>
+        <v>-0.008247046666953178</v>
       </c>
       <c r="E13">
-        <v>0.01929640308231377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.005541353805215393</v>
+      </c>
+      <c r="F13">
+        <v>0.04530264453951863</v>
+      </c>
+      <c r="G13">
+        <v>-0.002640559988676031</v>
+      </c>
+      <c r="H13">
+        <v>0.001246718256021622</v>
+      </c>
+      <c r="I13">
+        <v>0.08488468972112075</v>
+      </c>
+      <c r="J13">
+        <v>-0.04658951980886137</v>
+      </c>
+      <c r="K13">
+        <v>0.1051245755675518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03471134905618836</v>
+        <v>0.04415448587625041</v>
       </c>
       <c r="C14">
-        <v>-0.008574379427274136</v>
+        <v>-0.007862583872521577</v>
       </c>
       <c r="D14">
-        <v>0.03196965963019435</v>
+        <v>0.03618648098020819</v>
       </c>
       <c r="E14">
-        <v>0.01032601731066694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.003369037993261788</v>
+      </c>
+      <c r="F14">
+        <v>0.02759658033784398</v>
+      </c>
+      <c r="G14">
+        <v>-0.01873607197448728</v>
+      </c>
+      <c r="H14">
+        <v>0.05204915931025302</v>
+      </c>
+      <c r="I14">
+        <v>0.06628163991207912</v>
+      </c>
+      <c r="J14">
+        <v>0.03207027935838774</v>
+      </c>
+      <c r="K14">
+        <v>0.04432367236958168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0569478118064144</v>
+        <v>0.04432971670994194</v>
       </c>
       <c r="C15">
-        <v>0.01532258327601433</v>
+        <v>-0.01577237900534158</v>
       </c>
       <c r="D15">
-        <v>0.009853281476292997</v>
+        <v>-0.01083684428436302</v>
       </c>
       <c r="E15">
-        <v>0.007867060476895942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.005784280364286278</v>
+      </c>
+      <c r="F15">
+        <v>0.03482605528719131</v>
+      </c>
+      <c r="G15">
+        <v>-0.0005085322150443598</v>
+      </c>
+      <c r="H15">
+        <v>0.003883761385937836</v>
+      </c>
+      <c r="I15">
+        <v>0.03119696231964731</v>
+      </c>
+      <c r="J15">
+        <v>0.03451669897748322</v>
+      </c>
+      <c r="K15">
+        <v>0.0762768622327924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06388515454513656</v>
+        <v>0.07527147238500471</v>
       </c>
       <c r="C16">
-        <v>0.05961099542559951</v>
+        <v>-0.05904253074337872</v>
       </c>
       <c r="D16">
-        <v>0.03845201937761308</v>
+        <v>0.03376474556984833</v>
       </c>
       <c r="E16">
-        <v>0.02587202584600779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007954572764598131</v>
+      </c>
+      <c r="F16">
+        <v>0.03943103457192541</v>
+      </c>
+      <c r="G16">
+        <v>-0.03120567381768815</v>
+      </c>
+      <c r="H16">
+        <v>0.02643606046815867</v>
+      </c>
+      <c r="I16">
+        <v>0.05958887315011183</v>
+      </c>
+      <c r="J16">
+        <v>-0.03567354630883391</v>
+      </c>
+      <c r="K16">
+        <v>-0.02883949805118205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06857901722177244</v>
+        <v>0.06198837595547189</v>
       </c>
       <c r="C20">
-        <v>0.05101574412057727</v>
+        <v>-0.03761273956914597</v>
       </c>
       <c r="D20">
-        <v>0.01722671068603661</v>
+        <v>0.01094554790854628</v>
       </c>
       <c r="E20">
-        <v>0.02674285801176796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01542075953295301</v>
+      </c>
+      <c r="F20">
+        <v>0.01387644461280641</v>
+      </c>
+      <c r="G20">
+        <v>-0.02499883111836351</v>
+      </c>
+      <c r="H20">
+        <v>0.03037636671497871</v>
+      </c>
+      <c r="I20">
+        <v>0.1203968900415443</v>
+      </c>
+      <c r="J20">
+        <v>-0.02445142706010159</v>
+      </c>
+      <c r="K20">
+        <v>0.04256991222562637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03744986990969612</v>
+        <v>0.03054772983956141</v>
       </c>
       <c r="C21">
-        <v>0.02202333256166972</v>
+        <v>-0.02538378035083313</v>
       </c>
       <c r="D21">
-        <v>-0.02537632781035747</v>
+        <v>-0.03302099239259492</v>
       </c>
       <c r="E21">
-        <v>0.01288977897698321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.003827898813820978</v>
+      </c>
+      <c r="F21">
+        <v>0.02352707759959913</v>
+      </c>
+      <c r="G21">
+        <v>0.001096120498271801</v>
+      </c>
+      <c r="H21">
+        <v>-0.06891232970780929</v>
+      </c>
+      <c r="I21">
+        <v>0.04707839808824924</v>
+      </c>
+      <c r="J21">
+        <v>0.037403791656982</v>
+      </c>
+      <c r="K21">
+        <v>0.06040092031128852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1190199296128301</v>
+        <v>0.09473016788390481</v>
       </c>
       <c r="C22">
-        <v>0.1107031814132641</v>
+        <v>-0.06608757720662033</v>
       </c>
       <c r="D22">
-        <v>-0.01932265852898945</v>
+        <v>-0.2614671530525792</v>
       </c>
       <c r="E22">
-        <v>0.002909698280896336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001037246831384473</v>
+      </c>
+      <c r="F22">
+        <v>0.4808542644444447</v>
+      </c>
+      <c r="G22">
+        <v>0.2906559250698169</v>
+      </c>
+      <c r="H22">
+        <v>-0.07368172835700709</v>
+      </c>
+      <c r="I22">
+        <v>-0.248372614511691</v>
+      </c>
+      <c r="J22">
+        <v>-0.0162778311318969</v>
+      </c>
+      <c r="K22">
+        <v>-0.04528022823861007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.120003495107847</v>
+        <v>0.09567728996855074</v>
       </c>
       <c r="C23">
-        <v>0.1099274899823387</v>
+        <v>-0.06632320380111995</v>
       </c>
       <c r="D23">
-        <v>-0.01740033584000621</v>
+        <v>-0.2607440975220704</v>
       </c>
       <c r="E23">
-        <v>0.003804759856998673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001102630266211403</v>
+      </c>
+      <c r="F23">
+        <v>0.4857188177619942</v>
+      </c>
+      <c r="G23">
+        <v>0.2863445498044859</v>
+      </c>
+      <c r="H23">
+        <v>-0.07157863524856456</v>
+      </c>
+      <c r="I23">
+        <v>-0.2491817620298923</v>
+      </c>
+      <c r="J23">
+        <v>-0.01029599255508402</v>
+      </c>
+      <c r="K23">
+        <v>-0.04577450991825144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08379579027543901</v>
+        <v>0.08409332530271374</v>
       </c>
       <c r="C24">
-        <v>0.05734573835284566</v>
+        <v>-0.05636304357468355</v>
       </c>
       <c r="D24">
-        <v>0.0323351149041237</v>
+        <v>0.02509100054538092</v>
       </c>
       <c r="E24">
-        <v>0.04016984387702635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.01850292830891281</v>
+      </c>
+      <c r="F24">
+        <v>0.04502316494322256</v>
+      </c>
+      <c r="G24">
+        <v>-0.05130569297214681</v>
+      </c>
+      <c r="H24">
+        <v>0.01246098984034513</v>
+      </c>
+      <c r="I24">
+        <v>0.07794606598471492</v>
+      </c>
+      <c r="J24">
+        <v>-0.02811198637657933</v>
+      </c>
+      <c r="K24">
+        <v>-0.03663051445272326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08100765440516644</v>
+        <v>0.07880132513537874</v>
       </c>
       <c r="C25">
-        <v>0.04866699537318572</v>
+        <v>-0.04609967512883808</v>
       </c>
       <c r="D25">
-        <v>0.04921476440799591</v>
+        <v>0.03674901507053158</v>
       </c>
       <c r="E25">
-        <v>0.04785195607628419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.009361322113217692</v>
+      </c>
+      <c r="F25">
+        <v>0.04997874613432578</v>
+      </c>
+      <c r="G25">
+        <v>-0.03987693201639281</v>
+      </c>
+      <c r="H25">
+        <v>0.02362849796939544</v>
+      </c>
+      <c r="I25">
+        <v>0.0929326493529225</v>
+      </c>
+      <c r="J25">
+        <v>-0.0354299945909947</v>
+      </c>
+      <c r="K25">
+        <v>-0.04796262637996564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05298788786029789</v>
+        <v>0.04703383493081196</v>
       </c>
       <c r="C26">
-        <v>0.01178214979563317</v>
+        <v>-0.02371648683784658</v>
       </c>
       <c r="D26">
-        <v>-0.0003725350546435999</v>
+        <v>-0.01536547076162072</v>
       </c>
       <c r="E26">
-        <v>0.03602240600564487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.00943249395729636</v>
+      </c>
+      <c r="F26">
+        <v>0.02365617359653194</v>
+      </c>
+      <c r="G26">
+        <v>-0.01255029602425618</v>
+      </c>
+      <c r="H26">
+        <v>0.02582292993509133</v>
+      </c>
+      <c r="I26">
+        <v>0.03325579997000998</v>
+      </c>
+      <c r="J26">
+        <v>0.009549265044819864</v>
+      </c>
+      <c r="K26">
+        <v>0.1255282074005605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.0460715114817084</v>
+        <v>0.08672584542398189</v>
       </c>
       <c r="C28">
-        <v>-0.298214072126306</v>
+        <v>0.2969151631880425</v>
       </c>
       <c r="D28">
-        <v>-0.007417181063725265</v>
+        <v>-0.003264697994242721</v>
       </c>
       <c r="E28">
-        <v>0.07833659724063449</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02025776777194374</v>
+      </c>
+      <c r="F28">
+        <v>0.01358663288545789</v>
+      </c>
+      <c r="G28">
+        <v>-0.01282853622456317</v>
+      </c>
+      <c r="H28">
+        <v>-0.04212966469652931</v>
+      </c>
+      <c r="I28">
+        <v>-0.02351908298569798</v>
+      </c>
+      <c r="J28">
+        <v>-0.002248890745233535</v>
+      </c>
+      <c r="K28">
+        <v>0.05554886530084187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05896702216057195</v>
+        <v>0.05496666546819979</v>
       </c>
       <c r="C29">
-        <v>-0.001884077350481174</v>
+        <v>-0.01147588617335953</v>
       </c>
       <c r="D29">
-        <v>0.02967083635368507</v>
+        <v>0.02331842057014287</v>
       </c>
       <c r="E29">
-        <v>0.02330488594740709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0130710948666057</v>
+      </c>
+      <c r="F29">
+        <v>0.03638518502349045</v>
+      </c>
+      <c r="G29">
+        <v>-0.01645224177751302</v>
+      </c>
+      <c r="H29">
+        <v>0.06543776416635613</v>
+      </c>
+      <c r="I29">
+        <v>0.04521754855869549</v>
+      </c>
+      <c r="J29">
+        <v>0.01367829558831386</v>
+      </c>
+      <c r="K29">
+        <v>0.04159920970906404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1529622485692441</v>
+        <v>0.1318061071467009</v>
       </c>
       <c r="C30">
-        <v>0.0642358861665087</v>
+        <v>-0.05429701510792866</v>
       </c>
       <c r="D30">
-        <v>0.07028766197989728</v>
+        <v>0.02973069082110999</v>
       </c>
       <c r="E30">
-        <v>0.05776895499391065</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0159986429454796</v>
+      </c>
+      <c r="F30">
+        <v>0.1199427358163796</v>
+      </c>
+      <c r="G30">
+        <v>-0.06522458135047324</v>
+      </c>
+      <c r="H30">
+        <v>-0.08245472406527225</v>
+      </c>
+      <c r="I30">
+        <v>0.2758490004812656</v>
+      </c>
+      <c r="J30">
+        <v>-0.1409230130764801</v>
+      </c>
+      <c r="K30">
+        <v>0.2544384984303289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.0586177460657328</v>
+        <v>0.04794935450831544</v>
       </c>
       <c r="C31">
-        <v>0.01590882122210996</v>
+        <v>-0.03546864895930751</v>
       </c>
       <c r="D31">
-        <v>0.02737287146572767</v>
+        <v>0.006960172578093538</v>
       </c>
       <c r="E31">
-        <v>0.00358581484803546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009008279823538422</v>
+      </c>
+      <c r="F31">
+        <v>0.0170503689135264</v>
+      </c>
+      <c r="G31">
+        <v>0.01368544957333126</v>
+      </c>
+      <c r="H31">
+        <v>0.05266692242677046</v>
+      </c>
+      <c r="I31">
+        <v>0.04394421736896214</v>
+      </c>
+      <c r="J31">
+        <v>0.02226302337845171</v>
+      </c>
+      <c r="K31">
+        <v>0.0224200702110613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04512207996386659</v>
+        <v>0.0500525100444477</v>
       </c>
       <c r="C32">
-        <v>0.007219752931561543</v>
+        <v>0.007067808165308593</v>
       </c>
       <c r="D32">
-        <v>0.01209461795803351</v>
+        <v>-0.01946080315867433</v>
       </c>
       <c r="E32">
-        <v>-0.005292833427133936</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01463117643701798</v>
+      </c>
+      <c r="F32">
+        <v>0.07403468733390511</v>
+      </c>
+      <c r="G32">
+        <v>0.01485896286684222</v>
+      </c>
+      <c r="H32">
+        <v>-0.003197745238683355</v>
+      </c>
+      <c r="I32">
+        <v>-0.03557678792610613</v>
+      </c>
+      <c r="J32">
+        <v>-0.05966035269259534</v>
+      </c>
+      <c r="K32">
+        <v>0.1211107782326363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1031356928997718</v>
+        <v>0.1062107226039276</v>
       </c>
       <c r="C33">
-        <v>0.02741113658901887</v>
+        <v>-0.04518379048272909</v>
       </c>
       <c r="D33">
-        <v>0.03778930043432339</v>
+        <v>0.01232783433463804</v>
       </c>
       <c r="E33">
-        <v>0.009431104155444396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0194039102383919</v>
+      </c>
+      <c r="F33">
+        <v>0.03084700513169763</v>
+      </c>
+      <c r="G33">
+        <v>-0.006885317684833137</v>
+      </c>
+      <c r="H33">
+        <v>0.03014012423388931</v>
+      </c>
+      <c r="I33">
+        <v>0.07355745389536641</v>
+      </c>
+      <c r="J33">
+        <v>0.004444595691257677</v>
+      </c>
+      <c r="K33">
+        <v>0.02479304020135882</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06406056964964323</v>
+        <v>0.06978942382136934</v>
       </c>
       <c r="C34">
-        <v>0.05768991550108638</v>
+        <v>-0.04828230608699103</v>
       </c>
       <c r="D34">
-        <v>0.02527436205549826</v>
+        <v>0.02218483690078671</v>
       </c>
       <c r="E34">
-        <v>0.0259808146795931</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.008402441908086332</v>
+      </c>
+      <c r="F34">
+        <v>0.03172454025266119</v>
+      </c>
+      <c r="G34">
+        <v>-0.03503923412747856</v>
+      </c>
+      <c r="H34">
+        <v>0.03217764013580545</v>
+      </c>
+      <c r="I34">
+        <v>0.07112852214631049</v>
+      </c>
+      <c r="J34">
+        <v>-0.01428303563578905</v>
+      </c>
+      <c r="K34">
+        <v>-0.05137197370524772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04081611038873131</v>
+        <v>0.03535502340487896</v>
       </c>
       <c r="C35">
-        <v>0.008099893494930822</v>
+        <v>-0.01816597711338123</v>
       </c>
       <c r="D35">
-        <v>0.0188950030604898</v>
+        <v>0.01209758265997743</v>
       </c>
       <c r="E35">
-        <v>0.002862137431781617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.009841469157020217</v>
+      </c>
+      <c r="F35">
+        <v>0.01276722118974969</v>
+      </c>
+      <c r="G35">
+        <v>0.01125353871942195</v>
+      </c>
+      <c r="H35">
+        <v>0.02108501585543263</v>
+      </c>
+      <c r="I35">
+        <v>0.06120367645552542</v>
+      </c>
+      <c r="J35">
+        <v>-0.01473898167472144</v>
+      </c>
+      <c r="K35">
+        <v>0.01096493212953271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03926287889955862</v>
+        <v>0.03488786631736148</v>
       </c>
       <c r="C36">
-        <v>0.01573773934241999</v>
+        <v>-0.01287147464682275</v>
       </c>
       <c r="D36">
-        <v>0.01619850442171226</v>
+        <v>0.00336168472831241</v>
       </c>
       <c r="E36">
-        <v>0.03081891379808507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01507973527614801</v>
+      </c>
+      <c r="F36">
+        <v>0.03793497819054627</v>
+      </c>
+      <c r="G36">
+        <v>-0.01434507545692032</v>
+      </c>
+      <c r="H36">
+        <v>0.01749482391269309</v>
+      </c>
+      <c r="I36">
+        <v>0.07197737531573986</v>
+      </c>
+      <c r="J36">
+        <v>-0.007542437937035029</v>
+      </c>
+      <c r="K36">
+        <v>0.0467189386250887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06663895687672186</v>
+        <v>0.05120713978590398</v>
       </c>
       <c r="C38">
-        <v>0.008875762544021726</v>
+        <v>-0.04398254639630953</v>
       </c>
       <c r="D38">
-        <v>-0.02172088333925512</v>
+        <v>-0.03377809440641606</v>
       </c>
       <c r="E38">
-        <v>-0.009822168097099062</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01098097701192824</v>
+      </c>
+      <c r="F38">
+        <v>0.001477986772298668</v>
+      </c>
+      <c r="G38">
+        <v>-0.003203300136069205</v>
+      </c>
+      <c r="H38">
+        <v>-0.003940898742597432</v>
+      </c>
+      <c r="I38">
+        <v>-0.06839454652839966</v>
+      </c>
+      <c r="J38">
+        <v>-0.02717623647305374</v>
+      </c>
+      <c r="K38">
+        <v>0.06853262217641219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09369329898940441</v>
+        <v>0.09958328112672143</v>
       </c>
       <c r="C39">
-        <v>0.04469002540595333</v>
+        <v>-0.05045327312752114</v>
       </c>
       <c r="D39">
-        <v>0.04237914644066406</v>
+        <v>0.03195889511441462</v>
       </c>
       <c r="E39">
-        <v>0.004792715495479476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.001760591164407375</v>
+      </c>
+      <c r="F39">
+        <v>0.03980775223651461</v>
+      </c>
+      <c r="G39">
+        <v>-0.03783552602293922</v>
+      </c>
+      <c r="H39">
+        <v>0.01185221013669404</v>
+      </c>
+      <c r="I39">
+        <v>0.09084568015615732</v>
+      </c>
+      <c r="J39">
+        <v>-0.1452200273479809</v>
+      </c>
+      <c r="K39">
+        <v>-0.01482929008677484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07532487897177438</v>
+        <v>0.04719577041963342</v>
       </c>
       <c r="C40">
-        <v>0.01418148160390981</v>
+        <v>-0.03977466372249381</v>
       </c>
       <c r="D40">
-        <v>0.02864091470020297</v>
+        <v>-0.03508877572930298</v>
       </c>
       <c r="E40">
-        <v>0.01539481181523941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01049721663990755</v>
+      </c>
+      <c r="F40">
+        <v>0.06461583983218228</v>
+      </c>
+      <c r="G40">
+        <v>-0.08970941725295303</v>
+      </c>
+      <c r="H40">
+        <v>-0.08065524448511839</v>
+      </c>
+      <c r="I40">
+        <v>0.1268705295831522</v>
+      </c>
+      <c r="J40">
+        <v>-0.2690214700196402</v>
+      </c>
+      <c r="K40">
+        <v>0.07437167238108763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06285265443853527</v>
+        <v>0.04871127863858456</v>
       </c>
       <c r="C41">
-        <v>0.02678925341533809</v>
+        <v>-0.03232365999067344</v>
       </c>
       <c r="D41">
-        <v>0.01119130810498285</v>
+        <v>0.003997842586760672</v>
       </c>
       <c r="E41">
-        <v>-0.005759849168164123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002354248572372799</v>
+      </c>
+      <c r="F41">
+        <v>-0.01753735728132759</v>
+      </c>
+      <c r="G41">
+        <v>-0.01644742807338395</v>
+      </c>
+      <c r="H41">
+        <v>0.03210900957644392</v>
+      </c>
+      <c r="I41">
+        <v>0.00668125941792721</v>
+      </c>
+      <c r="J41">
+        <v>-0.03847082757132186</v>
+      </c>
+      <c r="K41">
+        <v>0.03326664510428849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06456569780197774</v>
+        <v>0.06204175395236366</v>
       </c>
       <c r="C43">
-        <v>0.01603374768964152</v>
+        <v>-0.0345088342264853</v>
       </c>
       <c r="D43">
-        <v>0.01912583548994406</v>
+        <v>0.0109242487316091</v>
       </c>
       <c r="E43">
-        <v>0.02087201246262509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02047332845876302</v>
+      </c>
+      <c r="F43">
+        <v>0.01678849525917927</v>
+      </c>
+      <c r="G43">
+        <v>-0.002589601519094026</v>
+      </c>
+      <c r="H43">
+        <v>0.05658537553865126</v>
+      </c>
+      <c r="I43">
+        <v>0.01192444175361657</v>
+      </c>
+      <c r="J43">
+        <v>-0.01418738813606177</v>
+      </c>
+      <c r="K43">
+        <v>0.004787423726665882</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.0947707084378054</v>
+        <v>0.09583789627304264</v>
       </c>
       <c r="C44">
-        <v>0.05394684317521432</v>
+        <v>-0.05382122292670542</v>
       </c>
       <c r="D44">
-        <v>0.01873770464033598</v>
+        <v>0.003155862988364313</v>
       </c>
       <c r="E44">
-        <v>0.08445476862376922</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.06935943341835717</v>
+      </c>
+      <c r="F44">
+        <v>0.1154642822355919</v>
+      </c>
+      <c r="G44">
+        <v>-0.06387163591301399</v>
+      </c>
+      <c r="H44">
+        <v>0.05368096803221772</v>
+      </c>
+      <c r="I44">
+        <v>0.1533274153561495</v>
+      </c>
+      <c r="J44">
+        <v>-0.06736244803847209</v>
+      </c>
+      <c r="K44">
+        <v>0.007252367551914078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03386207108298225</v>
+        <v>0.0478360449861603</v>
       </c>
       <c r="C46">
-        <v>0.03083727867159678</v>
+        <v>-0.031255139470354</v>
       </c>
       <c r="D46">
-        <v>0.01570178926066217</v>
+        <v>0.01409190033494975</v>
       </c>
       <c r="E46">
-        <v>0.01937906157072189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01663943347991947</v>
+      </c>
+      <c r="F46">
+        <v>0.04927180890773774</v>
+      </c>
+      <c r="G46">
+        <v>0.007335049333280654</v>
+      </c>
+      <c r="H46">
+        <v>0.01654301237020991</v>
+      </c>
+      <c r="I46">
+        <v>0.03144021485596937</v>
+      </c>
+      <c r="J46">
+        <v>0.02863287798810167</v>
+      </c>
+      <c r="K46">
+        <v>0.03895542991587758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03855982183261975</v>
+        <v>0.04701559088900011</v>
       </c>
       <c r="C47">
-        <v>-0.007742667371447983</v>
+        <v>-0.008080441919982423</v>
       </c>
       <c r="D47">
-        <v>0.00865687786821091</v>
+        <v>-0.004148497246058633</v>
       </c>
       <c r="E47">
-        <v>0.01530576324733163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007338803116508087</v>
+      </c>
+      <c r="F47">
+        <v>0.04156085872617789</v>
+      </c>
+      <c r="G47">
+        <v>0.01701676326839058</v>
+      </c>
+      <c r="H47">
+        <v>0.0142073889745785</v>
+      </c>
+      <c r="I47">
+        <v>0.02824918550062936</v>
+      </c>
+      <c r="J47">
+        <v>0.0290957785500073</v>
+      </c>
+      <c r="K47">
+        <v>0.002180740555166598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04958747343402243</v>
+        <v>0.04373961218680559</v>
       </c>
       <c r="C48">
-        <v>0.01893320210464077</v>
+        <v>-0.01421996707156342</v>
       </c>
       <c r="D48">
-        <v>0.02766417873797765</v>
+        <v>-0.004872918569598249</v>
       </c>
       <c r="E48">
-        <v>0.02220706649515552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.006109886452152637</v>
+      </c>
+      <c r="F48">
+        <v>0.04598328261238752</v>
+      </c>
+      <c r="G48">
+        <v>0.004953848882263513</v>
+      </c>
+      <c r="H48">
+        <v>-0.009416363766941336</v>
+      </c>
+      <c r="I48">
+        <v>0.05150889983373085</v>
+      </c>
+      <c r="J48">
+        <v>0.001214788954673168</v>
+      </c>
+      <c r="K48">
+        <v>0.05587205163474131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1467400433502661</v>
+        <v>0.2040551991991014</v>
       </c>
       <c r="C49">
-        <v>0.007032933991477927</v>
+        <v>-0.01973575380559669</v>
       </c>
       <c r="D49">
-        <v>0.07526557826445612</v>
+        <v>0.162540707171717</v>
       </c>
       <c r="E49">
-        <v>0.03385871053085449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.01029687693361378</v>
+      </c>
+      <c r="F49">
+        <v>-0.1272833025873434</v>
+      </c>
+      <c r="G49">
+        <v>0.1032343612242516</v>
+      </c>
+      <c r="H49">
+        <v>-0.187844757818579</v>
+      </c>
+      <c r="I49">
+        <v>-0.1123357964021599</v>
+      </c>
+      <c r="J49">
+        <v>-0.06363599010962975</v>
+      </c>
+      <c r="K49">
+        <v>-0.2456468526779063</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06626055961317982</v>
+        <v>0.0561730267632993</v>
       </c>
       <c r="C50">
-        <v>0.02355198882685395</v>
+        <v>-0.03458906685591125</v>
       </c>
       <c r="D50">
-        <v>0.03454681773059731</v>
+        <v>0.01252581975891372</v>
       </c>
       <c r="E50">
-        <v>0.004332362285855373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02095777193910382</v>
+      </c>
+      <c r="F50">
+        <v>0.03041949089220371</v>
+      </c>
+      <c r="G50">
+        <v>-9.690679409669959e-05</v>
+      </c>
+      <c r="H50">
+        <v>0.05619818849606864</v>
+      </c>
+      <c r="I50">
+        <v>0.03673901953786384</v>
+      </c>
+      <c r="J50">
+        <v>0.0376748865364729</v>
+      </c>
+      <c r="K50">
+        <v>0.0395945738460915</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03698891749793282</v>
+        <v>0.04038158041542791</v>
       </c>
       <c r="C51">
-        <v>-0.009640884727368312</v>
+        <v>0.001719164827482152</v>
       </c>
       <c r="D51">
-        <v>-0.01781870248011872</v>
+        <v>-0.01520606135178808</v>
       </c>
       <c r="E51">
-        <v>0.007071107898684917</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03177944863940312</v>
+      </c>
+      <c r="F51">
+        <v>-0.02202874792501512</v>
+      </c>
+      <c r="G51">
+        <v>0.01047137064542347</v>
+      </c>
+      <c r="H51">
+        <v>-0.01803511339751029</v>
+      </c>
+      <c r="I51">
+        <v>-0.006901439879224119</v>
+      </c>
+      <c r="J51">
+        <v>-0.03654115621084187</v>
+      </c>
+      <c r="K51">
+        <v>-0.07324545062245197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1550026142831963</v>
+        <v>0.1560130529943282</v>
       </c>
       <c r="C53">
-        <v>-0.032440402841879</v>
+        <v>-0.01449590748096086</v>
       </c>
       <c r="D53">
-        <v>0.06757688214020864</v>
+        <v>0.06426038121418333</v>
       </c>
       <c r="E53">
-        <v>0.00202926238443006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.01496671125322905</v>
+      </c>
+      <c r="F53">
+        <v>-0.02854608426028233</v>
+      </c>
+      <c r="G53">
+        <v>0.04611883839910203</v>
+      </c>
+      <c r="H53">
+        <v>0.2290064662307159</v>
+      </c>
+      <c r="I53">
+        <v>-0.06089440779581511</v>
+      </c>
+      <c r="J53">
+        <v>0.04739746967291846</v>
+      </c>
+      <c r="K53">
+        <v>-0.04320998097519619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.0663719858522613</v>
+        <v>0.06457606547942892</v>
       </c>
       <c r="C54">
-        <v>0.02029682939132225</v>
+        <v>-0.01291371531066186</v>
       </c>
       <c r="D54">
-        <v>0.008930330098798688</v>
+        <v>-0.008316266893592968</v>
       </c>
       <c r="E54">
-        <v>0.0355414860556135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01684637872497177</v>
+      </c>
+      <c r="F54">
+        <v>0.08445536830842981</v>
+      </c>
+      <c r="G54">
+        <v>-0.04763000663869876</v>
+      </c>
+      <c r="H54">
+        <v>0.01597766336605535</v>
+      </c>
+      <c r="I54">
+        <v>0.1132117193550193</v>
+      </c>
+      <c r="J54">
+        <v>0.01903219689147811</v>
+      </c>
+      <c r="K54">
+        <v>0.07599848858391653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09736119544679288</v>
+        <v>0.09632129828210212</v>
       </c>
       <c r="C55">
-        <v>-0.002006471185638582</v>
+        <v>-0.02799112518721612</v>
       </c>
       <c r="D55">
-        <v>0.05009275771565496</v>
+        <v>0.04150941259531268</v>
       </c>
       <c r="E55">
-        <v>0.02113771463126944</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003945202208631537</v>
+      </c>
+      <c r="F55">
+        <v>0.005255312280620586</v>
+      </c>
+      <c r="G55">
+        <v>-0.002848604979344616</v>
+      </c>
+      <c r="H55">
+        <v>0.1759755862903774</v>
+      </c>
+      <c r="I55">
+        <v>0.007987066852914088</v>
+      </c>
+      <c r="J55">
+        <v>0.03575834964608592</v>
+      </c>
+      <c r="K55">
+        <v>-0.04003165896388679</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1536625925316114</v>
+        <v>0.15284039079416</v>
       </c>
       <c r="C56">
-        <v>-0.02998816711863529</v>
+        <v>-0.03321035013941436</v>
       </c>
       <c r="D56">
-        <v>0.08627438833924102</v>
+        <v>0.07081923450759404</v>
       </c>
       <c r="E56">
-        <v>0.04014077925881392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.003677090872707098</v>
+      </c>
+      <c r="F56">
+        <v>-0.004635070579204231</v>
+      </c>
+      <c r="G56">
+        <v>0.02844162776579124</v>
+      </c>
+      <c r="H56">
+        <v>0.2327696561981251</v>
+      </c>
+      <c r="I56">
+        <v>-0.07161263316429714</v>
+      </c>
+      <c r="J56">
+        <v>0.02175390253541408</v>
+      </c>
+      <c r="K56">
+        <v>-0.003863268766369244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1159183867466721</v>
+        <v>0.0760708465431144</v>
       </c>
       <c r="C58">
-        <v>0.05758820615769848</v>
+        <v>-0.04492369076272221</v>
       </c>
       <c r="D58">
-        <v>-0.1248520389272571</v>
+        <v>-0.1726960010859632</v>
       </c>
       <c r="E58">
-        <v>0.1139787570760752</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.08766572417598184</v>
+      </c>
+      <c r="F58">
+        <v>0.04228298332310549</v>
+      </c>
+      <c r="G58">
+        <v>0.1147568139311662</v>
+      </c>
+      <c r="H58">
+        <v>-0.2445587036541747</v>
+      </c>
+      <c r="I58">
+        <v>0.4705452990342428</v>
+      </c>
+      <c r="J58">
+        <v>-0.05879984680972972</v>
+      </c>
+      <c r="K58">
+        <v>-0.1758885031470516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1310061923759578</v>
+        <v>0.1687663627000556</v>
       </c>
       <c r="C59">
-        <v>-0.4430351860915739</v>
+        <v>0.3554676026149913</v>
       </c>
       <c r="D59">
-        <v>-0.03482377549397023</v>
+        <v>-0.02750829316222324</v>
       </c>
       <c r="E59">
-        <v>0.08479580453610157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03430830405437935</v>
+      </c>
+      <c r="F59">
+        <v>-0.0188936850735268</v>
+      </c>
+      <c r="G59">
+        <v>-0.02960479876688514</v>
+      </c>
+      <c r="H59">
+        <v>0.05119152362936815</v>
+      </c>
+      <c r="I59">
+        <v>-0.03751819458518411</v>
+      </c>
+      <c r="J59">
+        <v>-0.06446549913916355</v>
+      </c>
+      <c r="K59">
+        <v>0.003798597796353811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2197878585811341</v>
+        <v>0.2462925417180601</v>
       </c>
       <c r="C60">
-        <v>-0.02687498946761302</v>
+        <v>-0.03715274854546663</v>
       </c>
       <c r="D60">
-        <v>0.07746545807579608</v>
+        <v>0.1227022312670625</v>
       </c>
       <c r="E60">
-        <v>0.05313055633913097</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.03234270938294358</v>
+      </c>
+      <c r="F60">
+        <v>-0.07636867969492193</v>
+      </c>
+      <c r="G60">
+        <v>-0.00124411068247773</v>
+      </c>
+      <c r="H60">
+        <v>-0.1072214393080882</v>
+      </c>
+      <c r="I60">
+        <v>-0.1273149439204617</v>
+      </c>
+      <c r="J60">
+        <v>0.0959700496412124</v>
+      </c>
+      <c r="K60">
+        <v>-0.1637832401629722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08124204581051651</v>
+        <v>0.08983962128817641</v>
       </c>
       <c r="C61">
-        <v>0.02424662435987418</v>
+        <v>-0.03583853090199885</v>
       </c>
       <c r="D61">
-        <v>0.03026029765768773</v>
+        <v>0.02710388627004869</v>
       </c>
       <c r="E61">
-        <v>0.007031708282922967</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.0099134829756899</v>
+      </c>
+      <c r="F61">
+        <v>0.02880355387043337</v>
+      </c>
+      <c r="G61">
+        <v>-0.04286471501557595</v>
+      </c>
+      <c r="H61">
+        <v>0.06468241933904197</v>
+      </c>
+      <c r="I61">
+        <v>0.05783506647439871</v>
+      </c>
+      <c r="J61">
+        <v>-0.07305985231605085</v>
+      </c>
+      <c r="K61">
+        <v>-0.00243508561704309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1489315515074239</v>
+        <v>0.1462199423153794</v>
       </c>
       <c r="C62">
-        <v>-0.02412964299275558</v>
+        <v>-0.03721921553106849</v>
       </c>
       <c r="D62">
-        <v>0.04323554194462062</v>
+        <v>0.04230304117003178</v>
       </c>
       <c r="E62">
-        <v>-0.01994081924518389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03550442440189504</v>
+      </c>
+      <c r="F62">
+        <v>-0.0393664120836309</v>
+      </c>
+      <c r="G62">
+        <v>0.0006090164775589845</v>
+      </c>
+      <c r="H62">
+        <v>0.2273550877160811</v>
+      </c>
+      <c r="I62">
+        <v>-0.07715747324879545</v>
+      </c>
+      <c r="J62">
+        <v>0.08819084960539067</v>
+      </c>
+      <c r="K62">
+        <v>-0.0007583823688548448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06260248781067806</v>
+        <v>0.05451884024987262</v>
       </c>
       <c r="C63">
-        <v>0.02676902751203681</v>
+        <v>-0.02146180062466437</v>
       </c>
       <c r="D63">
-        <v>0.02354343740633063</v>
+        <v>0.0101311921086369</v>
       </c>
       <c r="E63">
-        <v>0.01477358988907998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01141588997022218</v>
+      </c>
+      <c r="F63">
+        <v>0.03299008020316158</v>
+      </c>
+      <c r="G63">
+        <v>-0.03717856748153928</v>
+      </c>
+      <c r="H63">
+        <v>0.02120128697105922</v>
+      </c>
+      <c r="I63">
+        <v>0.05078831271751038</v>
+      </c>
+      <c r="J63">
+        <v>0.02785011637084774</v>
+      </c>
+      <c r="K63">
+        <v>0.0413798200119214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1014039093531387</v>
+        <v>0.1065562234832</v>
       </c>
       <c r="C64">
-        <v>-0.003208650020462557</v>
+        <v>-0.01864103344197341</v>
       </c>
       <c r="D64">
-        <v>0.05480082689765203</v>
+        <v>0.05244132497213155</v>
       </c>
       <c r="E64">
-        <v>0.0287369581867499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01203057284979094</v>
+      </c>
+      <c r="F64">
+        <v>0.06190639148504178</v>
+      </c>
+      <c r="G64">
+        <v>-0.03506838192755325</v>
+      </c>
+      <c r="H64">
+        <v>-0.01728623871137185</v>
+      </c>
+      <c r="I64">
+        <v>0.04721532277038797</v>
+      </c>
+      <c r="J64">
+        <v>-0.05004762924918232</v>
+      </c>
+      <c r="K64">
+        <v>0.02154102347848745</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1208740690866235</v>
+        <v>0.1315287992335571</v>
       </c>
       <c r="C65">
-        <v>0.02259586509013067</v>
+        <v>-0.01019258050510792</v>
       </c>
       <c r="D65">
-        <v>0.04459580123968406</v>
+        <v>0.06145429686661279</v>
       </c>
       <c r="E65">
-        <v>0.05001423874055864</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01149008464590276</v>
+      </c>
+      <c r="F65">
+        <v>0.04400401568894431</v>
+      </c>
+      <c r="G65">
+        <v>-0.09028494908900027</v>
+      </c>
+      <c r="H65">
+        <v>-0.2159587771608258</v>
+      </c>
+      <c r="I65">
+        <v>0.119166182924851</v>
+      </c>
+      <c r="J65">
+        <v>0.6481123205215699</v>
+      </c>
+      <c r="K65">
+        <v>-0.009631225223864667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1582933037963168</v>
+        <v>0.1471044861946415</v>
       </c>
       <c r="C66">
-        <v>0.07705566187155004</v>
+        <v>-0.09239389493210515</v>
       </c>
       <c r="D66">
-        <v>0.0586821546068902</v>
+        <v>0.04492842581045434</v>
       </c>
       <c r="E66">
-        <v>0.01318783880053836</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.001797644508797297</v>
+      </c>
+      <c r="F66">
+        <v>0.02691251161829272</v>
+      </c>
+      <c r="G66">
+        <v>-0.08117153516737963</v>
+      </c>
+      <c r="H66">
+        <v>0.04237784790555002</v>
+      </c>
+      <c r="I66">
+        <v>0.1106574692886723</v>
+      </c>
+      <c r="J66">
+        <v>-0.2217891517314408</v>
+      </c>
+      <c r="K66">
+        <v>0.03404312673239273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09721502740118008</v>
+        <v>0.09722671015794195</v>
       </c>
       <c r="C67">
-        <v>0.008820667995146733</v>
+        <v>-0.04599758119251456</v>
       </c>
       <c r="D67">
-        <v>-0.02712763143042765</v>
+        <v>-0.01630141165272368</v>
       </c>
       <c r="E67">
-        <v>0.01171195614199885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.04265430067848369</v>
+      </c>
+      <c r="F67">
+        <v>-0.01781627024316193</v>
+      </c>
+      <c r="G67">
+        <v>-0.02969204652731085</v>
+      </c>
+      <c r="H67">
+        <v>0.0004627978703377149</v>
+      </c>
+      <c r="I67">
+        <v>-0.1049713341489838</v>
+      </c>
+      <c r="J67">
+        <v>-0.05303194516126548</v>
+      </c>
+      <c r="K67">
+        <v>0.03740427849106922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04232511524286967</v>
+        <v>0.07771031990982431</v>
       </c>
       <c r="C68">
-        <v>-0.2593583035981926</v>
+        <v>0.2805529807949375</v>
       </c>
       <c r="D68">
-        <v>-0.01999998261398395</v>
+        <v>-0.01973655138614421</v>
       </c>
       <c r="E68">
-        <v>0.04493807983196898</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01336081649901864</v>
+      </c>
+      <c r="F68">
+        <v>0.03808046321884998</v>
+      </c>
+      <c r="G68">
+        <v>0.02082956004123949</v>
+      </c>
+      <c r="H68">
+        <v>0.01428623939199087</v>
+      </c>
+      <c r="I68">
+        <v>0.03228946849785473</v>
+      </c>
+      <c r="J68">
+        <v>0.03887988601615036</v>
+      </c>
+      <c r="K68">
+        <v>0.02291031732292589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06853614563463371</v>
+        <v>0.05676014008926344</v>
       </c>
       <c r="C69">
-        <v>0.01390346166478105</v>
+        <v>-0.01838749647786487</v>
       </c>
       <c r="D69">
-        <v>-0.0005038149313646227</v>
+        <v>-0.02089355178133461</v>
       </c>
       <c r="E69">
-        <v>0.01542061014569957</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.00540612909384793</v>
+      </c>
+      <c r="F69">
+        <v>0.006533128731995277</v>
+      </c>
+      <c r="G69">
+        <v>-0.007242533500682821</v>
+      </c>
+      <c r="H69">
+        <v>0.03112088550657083</v>
+      </c>
+      <c r="I69">
+        <v>0.008754614980175017</v>
+      </c>
+      <c r="J69">
+        <v>-0.006282121763343565</v>
+      </c>
+      <c r="K69">
+        <v>-0.002912521863057864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01540379636637127</v>
+        <v>0.03935497216366234</v>
       </c>
       <c r="C70">
-        <v>-0.0134298821799012</v>
+        <v>-0.006867721725038124</v>
       </c>
       <c r="D70">
-        <v>-0.005304080531064194</v>
+        <v>-0.0007947605438559878</v>
       </c>
       <c r="E70">
-        <v>-0.01616358685219253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.000813543353866567</v>
+      </c>
+      <c r="F70">
+        <v>-0.05101129321447908</v>
+      </c>
+      <c r="G70">
+        <v>-0.001386371625064502</v>
+      </c>
+      <c r="H70">
+        <v>-0.04351053143980841</v>
+      </c>
+      <c r="I70">
+        <v>-0.02307742040832063</v>
+      </c>
+      <c r="J70">
+        <v>-0.02313794489843548</v>
+      </c>
+      <c r="K70">
+        <v>0.1062794092945729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.03917875551583754</v>
+        <v>0.08706413204385023</v>
       </c>
       <c r="C71">
-        <v>-0.2858278985269594</v>
+        <v>0.3002989745765117</v>
       </c>
       <c r="D71">
-        <v>-0.02539002570438161</v>
+        <v>-0.008532741611796488</v>
       </c>
       <c r="E71">
-        <v>0.07546750778169127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03014835251061863</v>
+      </c>
+      <c r="F71">
+        <v>0.03766244857837095</v>
+      </c>
+      <c r="G71">
+        <v>0.006774255718933557</v>
+      </c>
+      <c r="H71">
+        <v>0.0142725345878017</v>
+      </c>
+      <c r="I71">
+        <v>0.01960565916642341</v>
+      </c>
+      <c r="J71">
+        <v>0.009656557743643775</v>
+      </c>
+      <c r="K71">
+        <v>0.006090935130284757</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1455960746933635</v>
+        <v>0.1360228587232473</v>
       </c>
       <c r="C72">
-        <v>-0.04535830019307153</v>
+        <v>0.0006199584806833039</v>
       </c>
       <c r="D72">
-        <v>0.03121719307264049</v>
+        <v>-0.02958784932256951</v>
       </c>
       <c r="E72">
-        <v>-0.2314125735634824</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.166604812713735</v>
+      </c>
+      <c r="F72">
+        <v>-0.0333148159455599</v>
+      </c>
+      <c r="G72">
+        <v>-0.1100618649404036</v>
+      </c>
+      <c r="H72">
+        <v>0.02940916222000051</v>
+      </c>
+      <c r="I72">
+        <v>-0.009877477561430379</v>
+      </c>
+      <c r="J72">
+        <v>0.1108761756854054</v>
+      </c>
+      <c r="K72">
+        <v>-0.1211939588687674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2516334342334337</v>
+        <v>0.2455517412053811</v>
       </c>
       <c r="C73">
-        <v>0.04834899067642199</v>
+        <v>-0.1039936590256329</v>
       </c>
       <c r="D73">
-        <v>0.08893384720025296</v>
+        <v>0.1644917619248424</v>
       </c>
       <c r="E73">
-        <v>0.09336168496952719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.09660912571721735</v>
+      </c>
+      <c r="F73">
+        <v>-0.2507704054018719</v>
+      </c>
+      <c r="G73">
+        <v>0.15681204711347</v>
+      </c>
+      <c r="H73">
+        <v>-0.2596074332706793</v>
+      </c>
+      <c r="I73">
+        <v>-0.104768233039096</v>
+      </c>
+      <c r="J73">
+        <v>-0.2256144468579628</v>
+      </c>
+      <c r="K73">
+        <v>-0.4763533085642006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08535849003731523</v>
+        <v>0.09254373199797408</v>
       </c>
       <c r="C74">
-        <v>-0.01743195859634515</v>
+        <v>-0.02915331015025483</v>
       </c>
       <c r="D74">
-        <v>0.05514954572715958</v>
+        <v>0.04691125508423076</v>
       </c>
       <c r="E74">
-        <v>0.005732597495323685</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01473937616912727</v>
+      </c>
+      <c r="F74">
+        <v>-0.0009402928610703129</v>
+      </c>
+      <c r="G74">
+        <v>0.04474743061034171</v>
+      </c>
+      <c r="H74">
+        <v>0.1384488770668537</v>
+      </c>
+      <c r="I74">
+        <v>0.0004601351010684733</v>
+      </c>
+      <c r="J74">
+        <v>0.002173132095156508</v>
+      </c>
+      <c r="K74">
+        <v>-0.05224552650349239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.121999450552145</v>
+        <v>0.1051230536498307</v>
       </c>
       <c r="C75">
-        <v>-0.002879345151574036</v>
+        <v>-0.02881617647367499</v>
       </c>
       <c r="D75">
-        <v>0.003526215796736394</v>
+        <v>-0.01791635885144103</v>
       </c>
       <c r="E75">
-        <v>0.02254719721406966</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.008218942212686322</v>
+      </c>
+      <c r="F75">
+        <v>-0.02540886933262717</v>
+      </c>
+      <c r="G75">
+        <v>0.02772899968914387</v>
+      </c>
+      <c r="H75">
+        <v>0.1216645397274022</v>
+      </c>
+      <c r="I75">
+        <v>-0.03748475654134439</v>
+      </c>
+      <c r="J75">
+        <v>0.03841497521327788</v>
+      </c>
+      <c r="K75">
+        <v>-0.002186313722394608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1394558906657799</v>
+        <v>0.1264493084197095</v>
       </c>
       <c r="C76">
-        <v>-0.00814266335503124</v>
+        <v>-0.04733680339625194</v>
       </c>
       <c r="D76">
-        <v>0.06994375262554567</v>
+        <v>0.06570822582044832</v>
       </c>
       <c r="E76">
-        <v>0.02376664959824533</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.003010490970861341</v>
+      </c>
+      <c r="F76">
+        <v>0.0001404291724366128</v>
+      </c>
+      <c r="G76">
+        <v>0.03707972464293376</v>
+      </c>
+      <c r="H76">
+        <v>0.2615863742591796</v>
+      </c>
+      <c r="I76">
+        <v>-0.05063658614316863</v>
+      </c>
+      <c r="J76">
+        <v>0.04691753548745146</v>
+      </c>
+      <c r="K76">
+        <v>-0.007832606512470947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.132538426723303</v>
+        <v>0.09184032296667713</v>
       </c>
       <c r="C77">
-        <v>0.03518661111875568</v>
+        <v>-0.02697696345324877</v>
       </c>
       <c r="D77">
-        <v>-0.06060339944823429</v>
+        <v>-0.1269158101503978</v>
       </c>
       <c r="E77">
-        <v>0.02926106402126825</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.09136658167243816</v>
+      </c>
+      <c r="F77">
+        <v>0.1293826580371106</v>
+      </c>
+      <c r="G77">
+        <v>-0.7650524770549084</v>
+      </c>
+      <c r="H77">
+        <v>-0.1286959898982541</v>
+      </c>
+      <c r="I77">
+        <v>-0.3831633454854985</v>
+      </c>
+      <c r="J77">
+        <v>-0.121973673880876</v>
+      </c>
+      <c r="K77">
+        <v>-0.03227035494934721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1273908064086243</v>
+        <v>0.1635267649567737</v>
       </c>
       <c r="C78">
-        <v>0.06737190306027528</v>
+        <v>-0.07079696601391637</v>
       </c>
       <c r="D78">
-        <v>0.05118760387657562</v>
+        <v>0.02472676014061098</v>
       </c>
       <c r="E78">
-        <v>0.01296331837851439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04800661250488933</v>
+      </c>
+      <c r="F78">
+        <v>0.177423887787223</v>
+      </c>
+      <c r="G78">
+        <v>-0.02725757392468303</v>
+      </c>
+      <c r="H78">
+        <v>-0.09559438659058152</v>
+      </c>
+      <c r="I78">
+        <v>0.03500719645724802</v>
+      </c>
+      <c r="J78">
+        <v>0.07003120930539392</v>
+      </c>
+      <c r="K78">
+        <v>-0.1221210190348476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1503652907452039</v>
+        <v>0.1445992511968157</v>
       </c>
       <c r="C79">
-        <v>0.01768459796176799</v>
+        <v>-0.0412818812960528</v>
       </c>
       <c r="D79">
-        <v>0.06229365721518097</v>
+        <v>0.04469702422205441</v>
       </c>
       <c r="E79">
-        <v>0.002782612143404093</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.009336254968644002</v>
+      </c>
+      <c r="F79">
+        <v>-0.002526253802711675</v>
+      </c>
+      <c r="G79">
+        <v>-0.008972626459122807</v>
+      </c>
+      <c r="H79">
+        <v>0.1949782106914757</v>
+      </c>
+      <c r="I79">
+        <v>-0.05203066954285417</v>
+      </c>
+      <c r="J79">
+        <v>0.07599266018691964</v>
+      </c>
+      <c r="K79">
+        <v>-0.007711424649074134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03789509295454628</v>
+        <v>0.04346324375754064</v>
       </c>
       <c r="C80">
-        <v>0.01862036051735264</v>
+        <v>-0.007482894454956694</v>
       </c>
       <c r="D80">
-        <v>0.01156378888073042</v>
+        <v>0.04016380844694004</v>
       </c>
       <c r="E80">
-        <v>0.007880507479999984</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0008765729034150021</v>
+      </c>
+      <c r="F80">
+        <v>-0.04038521334235495</v>
+      </c>
+      <c r="G80">
+        <v>-0.002772017121753846</v>
+      </c>
+      <c r="H80">
+        <v>-0.03253805216943306</v>
+      </c>
+      <c r="I80">
+        <v>0.08443284788058635</v>
+      </c>
+      <c r="J80">
+        <v>-0.01646600056716477</v>
+      </c>
+      <c r="K80">
+        <v>0.01845331804679679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1365475574715518</v>
+        <v>0.1327692496700575</v>
       </c>
       <c r="C81">
-        <v>-0.001814414340383679</v>
+        <v>-0.01772207678704667</v>
       </c>
       <c r="D81">
-        <v>0.04716588109460537</v>
+        <v>0.03763892150620794</v>
       </c>
       <c r="E81">
-        <v>0.02989902020968964</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.001804315748494838</v>
+      </c>
+      <c r="F81">
+        <v>-0.006649836003588043</v>
+      </c>
+      <c r="G81">
+        <v>0.01741048082349472</v>
+      </c>
+      <c r="H81">
+        <v>0.1575294432988351</v>
+      </c>
+      <c r="I81">
+        <v>-0.007122095819595804</v>
+      </c>
+      <c r="J81">
+        <v>-0.02263328913692394</v>
+      </c>
+      <c r="K81">
+        <v>0.0216082552776126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1232526739779663</v>
+        <v>0.1271140367704193</v>
       </c>
       <c r="C82">
-        <v>0.01620993295362632</v>
+        <v>-0.02868620266980135</v>
       </c>
       <c r="D82">
-        <v>0.03163084585504478</v>
+        <v>0.03842778774143314</v>
       </c>
       <c r="E82">
-        <v>0.03850205624640442</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.004529096509582852</v>
+      </c>
+      <c r="F82">
+        <v>-0.02700679106628036</v>
+      </c>
+      <c r="G82">
+        <v>0.04400999937829057</v>
+      </c>
+      <c r="H82">
+        <v>0.278055789760458</v>
+      </c>
+      <c r="I82">
+        <v>-0.03986669632423262</v>
+      </c>
+      <c r="J82">
+        <v>-0.005504002742746936</v>
+      </c>
+      <c r="K82">
+        <v>0.02376035489389921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.0545646567547109</v>
+        <v>0.07715379858071006</v>
       </c>
       <c r="C83">
-        <v>0.0171958753505102</v>
+        <v>-0.03136475370251478</v>
       </c>
       <c r="D83">
-        <v>-0.0660664377537766</v>
+        <v>-0.03407143684349672</v>
       </c>
       <c r="E83">
-        <v>0.02064896418917369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.04670562225320879</v>
+      </c>
+      <c r="F83">
+        <v>-0.06568073735362383</v>
+      </c>
+      <c r="G83">
+        <v>0.02974388322526014</v>
+      </c>
+      <c r="H83">
+        <v>-0.07223667968109705</v>
+      </c>
+      <c r="I83">
+        <v>0.076792491112269</v>
+      </c>
+      <c r="J83">
+        <v>-0.04356094853164338</v>
+      </c>
+      <c r="K83">
+        <v>0.03336620977979055</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05201947397640516</v>
+        <v>0.03588330550874075</v>
       </c>
       <c r="C84">
-        <v>0.0133068844860273</v>
+        <v>-0.04325820700168583</v>
       </c>
       <c r="D84">
-        <v>0.04513223672624824</v>
+        <v>0.003136330653832739</v>
       </c>
       <c r="E84">
-        <v>-0.02728668420045277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.05644190749137865</v>
+      </c>
+      <c r="F84">
+        <v>0.0391979524038921</v>
+      </c>
+      <c r="G84">
+        <v>0.05195777107921917</v>
+      </c>
+      <c r="H84">
+        <v>-0.0006026134952586617</v>
+      </c>
+      <c r="I84">
+        <v>0.1195883715056427</v>
+      </c>
+      <c r="J84">
+        <v>-0.02986300747126076</v>
+      </c>
+      <c r="K84">
+        <v>0.1050800261778871</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1137631142968458</v>
+        <v>0.120830586166323</v>
       </c>
       <c r="C85">
-        <v>0.0329517421407502</v>
+        <v>-0.03780271642488684</v>
       </c>
       <c r="D85">
-        <v>0.01965700634699594</v>
+        <v>0.02475852410221686</v>
       </c>
       <c r="E85">
-        <v>0.06006264226947356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03466160998801166</v>
+      </c>
+      <c r="F85">
+        <v>0.007564801735661175</v>
+      </c>
+      <c r="G85">
+        <v>0.008075863561080808</v>
+      </c>
+      <c r="H85">
+        <v>0.1985024125110847</v>
+      </c>
+      <c r="I85">
+        <v>-0.01969949382266418</v>
+      </c>
+      <c r="J85">
+        <v>0.07340085279095956</v>
+      </c>
+      <c r="K85">
+        <v>-0.01544156221675323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07801735358429113</v>
+        <v>0.07086818403918912</v>
       </c>
       <c r="C86">
-        <v>0.0669333856206191</v>
+        <v>-0.03428972616382091</v>
       </c>
       <c r="D86">
-        <v>0.02178543629792985</v>
+        <v>-0.006169613546324946</v>
       </c>
       <c r="E86">
-        <v>0.009255175530540921</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0181674974510859</v>
+      </c>
+      <c r="F86">
+        <v>0.03837142662787274</v>
+      </c>
+      <c r="G86">
+        <v>0.01347903513174003</v>
+      </c>
+      <c r="H86">
+        <v>-0.03252540874967463</v>
+      </c>
+      <c r="I86">
+        <v>-0.003544954563777118</v>
+      </c>
+      <c r="J86">
+        <v>0.0251456965436526</v>
+      </c>
+      <c r="K86">
+        <v>0.02964295157546766</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1334313100018827</v>
+        <v>0.129539279722068</v>
       </c>
       <c r="C87">
-        <v>0.06985273922351877</v>
+        <v>-0.07280933980962843</v>
       </c>
       <c r="D87">
-        <v>0.06369831141131577</v>
+        <v>0.02071392440251127</v>
       </c>
       <c r="E87">
-        <v>0.0353026191867177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.00178902313609721</v>
+      </c>
+      <c r="F87">
+        <v>0.1067480546773557</v>
+      </c>
+      <c r="G87">
+        <v>-0.2070485416378295</v>
+      </c>
+      <c r="H87">
+        <v>-0.05385622623229331</v>
+      </c>
+      <c r="I87">
+        <v>-0.0188701453844699</v>
+      </c>
+      <c r="J87">
+        <v>-0.02702007990202222</v>
+      </c>
+      <c r="K87">
+        <v>0.04573348885555007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05838102568826191</v>
+        <v>0.0652907716422033</v>
       </c>
       <c r="C88">
-        <v>0.02223272330615244</v>
+        <v>-0.03755206509902952</v>
       </c>
       <c r="D88">
-        <v>0.0191307951945105</v>
+        <v>0.03207431889351534</v>
       </c>
       <c r="E88">
-        <v>0.0095006694642075</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01015616212992431</v>
+      </c>
+      <c r="F88">
+        <v>-0.004626437043428276</v>
+      </c>
+      <c r="G88">
+        <v>-0.007299596482416655</v>
+      </c>
+      <c r="H88">
+        <v>0.01703048475786392</v>
+      </c>
+      <c r="I88">
+        <v>0.04089765218969971</v>
+      </c>
+      <c r="J88">
+        <v>-0.02756012023061489</v>
+      </c>
+      <c r="K88">
+        <v>0.01829193606371544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07681014948306764</v>
+        <v>0.143650614097588</v>
       </c>
       <c r="C89">
-        <v>-0.3225757358608131</v>
+        <v>0.3774127892254103</v>
       </c>
       <c r="D89">
-        <v>-0.01946411855565882</v>
+        <v>0.005916558632180463</v>
       </c>
       <c r="E89">
-        <v>0.1077205520485155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.07956956102892629</v>
+      </c>
+      <c r="F89">
+        <v>0.03579690638162225</v>
+      </c>
+      <c r="G89">
+        <v>0.02698155135241191</v>
+      </c>
+      <c r="H89">
+        <v>-0.006622650090808319</v>
+      </c>
+      <c r="I89">
+        <v>0.06497016647121173</v>
+      </c>
+      <c r="J89">
+        <v>-0.07964459721445441</v>
+      </c>
+      <c r="K89">
+        <v>-0.01472574896471768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06260963243268283</v>
+        <v>0.09981411370271373</v>
       </c>
       <c r="C90">
-        <v>-0.2897939275675961</v>
+        <v>0.2826553578602783</v>
       </c>
       <c r="D90">
-        <v>-0.04345612862424314</v>
+        <v>-0.02688694937628174</v>
       </c>
       <c r="E90">
-        <v>0.05033740232563835</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02784298169919263</v>
+      </c>
+      <c r="F90">
+        <v>0.01797266498943444</v>
+      </c>
+      <c r="G90">
+        <v>-0.02891622884589576</v>
+      </c>
+      <c r="H90">
+        <v>-0.03900996243405294</v>
+      </c>
+      <c r="I90">
+        <v>0.06017072996800684</v>
+      </c>
+      <c r="J90">
+        <v>-0.05734842434261968</v>
+      </c>
+      <c r="K90">
+        <v>-0.01614271312507081</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1043333684840564</v>
+        <v>0.08938606818677472</v>
       </c>
       <c r="C91">
-        <v>0.01110256235085244</v>
+        <v>-0.03661012440869823</v>
       </c>
       <c r="D91">
-        <v>0.03143536291098268</v>
+        <v>0.0076058498615834</v>
       </c>
       <c r="E91">
-        <v>0.01364162745337443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.00166843248389221</v>
+      </c>
+      <c r="F91">
+        <v>-0.009493445237299102</v>
+      </c>
+      <c r="G91">
+        <v>0.03538904531812019</v>
+      </c>
+      <c r="H91">
+        <v>0.08614592114388164</v>
+      </c>
+      <c r="I91">
+        <v>-0.02312616942516984</v>
+      </c>
+      <c r="J91">
+        <v>0.01454727880610859</v>
+      </c>
+      <c r="K91">
+        <v>-0.008544019620758948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04557622193702911</v>
+        <v>0.1008889938266033</v>
       </c>
       <c r="C92">
-        <v>-0.3376370650446651</v>
+        <v>0.339435961088893</v>
       </c>
       <c r="D92">
-        <v>-0.003295710229141119</v>
+        <v>0.006652242282527007</v>
       </c>
       <c r="E92">
-        <v>0.08874519393157496</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03574803004496059</v>
+      </c>
+      <c r="F92">
+        <v>0.04599818016771984</v>
+      </c>
+      <c r="G92">
+        <v>0.0268822395691468</v>
+      </c>
+      <c r="H92">
+        <v>0.01555700887856463</v>
+      </c>
+      <c r="I92">
+        <v>0.0193499542977402</v>
+      </c>
+      <c r="J92">
+        <v>-0.0273535222631525</v>
+      </c>
+      <c r="K92">
+        <v>-0.002127768824487579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04301631423901908</v>
+        <v>0.1018522448511878</v>
       </c>
       <c r="C93">
-        <v>-0.2985626025455324</v>
+        <v>0.3157993522697813</v>
       </c>
       <c r="D93">
-        <v>-0.02311454300111001</v>
+        <v>0.003059890142145466</v>
       </c>
       <c r="E93">
-        <v>0.05299768849331693</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01949516081369132</v>
+      </c>
+      <c r="F93">
+        <v>0.004399383740130541</v>
+      </c>
+      <c r="G93">
+        <v>0.002635468151467691</v>
+      </c>
+      <c r="H93">
+        <v>-0.01547943472956213</v>
+      </c>
+      <c r="I93">
+        <v>0.002222706896999041</v>
+      </c>
+      <c r="J93">
+        <v>0.006909541872960501</v>
+      </c>
+      <c r="K93">
+        <v>0.0304535363934238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.127855981429549</v>
+        <v>0.1208382250388313</v>
       </c>
       <c r="C94">
-        <v>0.05260828355732527</v>
+        <v>-0.05711683030319328</v>
       </c>
       <c r="D94">
-        <v>0.03157935127397248</v>
+        <v>0.01078970608709275</v>
       </c>
       <c r="E94">
-        <v>0.03576033982707853</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.02565497943921652</v>
+      </c>
+      <c r="F94">
+        <v>0.002357544705052449</v>
+      </c>
+      <c r="G94">
+        <v>0.07402287873096067</v>
+      </c>
+      <c r="H94">
+        <v>0.1122734123909491</v>
+      </c>
+      <c r="I94">
+        <v>-0.01990679669172552</v>
+      </c>
+      <c r="J94">
+        <v>0.01942915949664216</v>
+      </c>
+      <c r="K94">
+        <v>-0.01193825649482749</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1272772511111556</v>
+        <v>0.1374727973951249</v>
       </c>
       <c r="C95">
-        <v>0.07473056914098</v>
+        <v>-0.06751806079336832</v>
       </c>
       <c r="D95">
-        <v>0.07149345094844881</v>
+        <v>0.04194213553726821</v>
       </c>
       <c r="E95">
-        <v>0.06883789435558918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.01985936574536671</v>
+      </c>
+      <c r="F95">
+        <v>0.06551963156548764</v>
+      </c>
+      <c r="G95">
+        <v>-0.04160610444321663</v>
+      </c>
+      <c r="H95">
+        <v>-0.1533653570434516</v>
+      </c>
+      <c r="I95">
+        <v>0.04460173421544295</v>
+      </c>
+      <c r="J95">
+        <v>0.01397560103801592</v>
+      </c>
+      <c r="K95">
+        <v>0.0007304130635479154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2512094451309965</v>
+        <v>0.1878234476485238</v>
       </c>
       <c r="C97">
-        <v>-0.144559869255668</v>
+        <v>0.03110134209248279</v>
       </c>
       <c r="D97">
-        <v>0.02959138855489209</v>
+        <v>-0.3006535924052989</v>
       </c>
       <c r="E97">
-        <v>-0.8913911684939687</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.8810183076958897</v>
+      </c>
+      <c r="F97">
+        <v>-0.1327177556862582</v>
+      </c>
+      <c r="G97">
+        <v>-0.04637160155175833</v>
+      </c>
+      <c r="H97">
+        <v>-0.05191849121488958</v>
+      </c>
+      <c r="I97">
+        <v>0.04821107151123861</v>
+      </c>
+      <c r="J97">
+        <v>-0.04975126441483246</v>
+      </c>
+      <c r="K97">
+        <v>-0.05659118251679197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2885485123367074</v>
+        <v>0.284626353986802</v>
       </c>
       <c r="C98">
-        <v>0.03884725211006305</v>
+        <v>-0.09644759831889653</v>
       </c>
       <c r="D98">
-        <v>-0.01777378318743325</v>
+        <v>0.05343843715129019</v>
       </c>
       <c r="E98">
-        <v>0.08483087329434121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.03419684807049957</v>
+      </c>
+      <c r="F98">
+        <v>-0.3139601776984589</v>
+      </c>
+      <c r="G98">
+        <v>0.2237321110478239</v>
+      </c>
+      <c r="H98">
+        <v>-0.3090914866250507</v>
+      </c>
+      <c r="I98">
+        <v>-0.281465773688405</v>
+      </c>
+      <c r="J98">
+        <v>-0.05746940955749252</v>
+      </c>
+      <c r="K98">
+        <v>0.6253120738750111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2364872738129708</v>
+        <v>0.1526786758355828</v>
       </c>
       <c r="C99">
-        <v>0.0971184702627395</v>
+        <v>-0.07362842178092537</v>
       </c>
       <c r="D99">
-        <v>-0.9218440788761258</v>
+        <v>-0.7637434546128058</v>
       </c>
       <c r="E99">
-        <v>0.003776849168463725</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.3530168656065491</v>
+      </c>
+      <c r="F99">
+        <v>-0.3779566769893878</v>
+      </c>
+      <c r="G99">
+        <v>-0.02954790090621843</v>
+      </c>
+      <c r="H99">
+        <v>0.1225441810945609</v>
+      </c>
+      <c r="I99">
+        <v>0.07513804399929386</v>
+      </c>
+      <c r="J99">
+        <v>0.09896320762973472</v>
+      </c>
+      <c r="K99">
+        <v>-0.04530414908414285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05882798120301871</v>
+        <v>0.05492903806029801</v>
       </c>
       <c r="C101">
-        <v>-0.001821539293572339</v>
+        <v>-0.01164895193992386</v>
       </c>
       <c r="D101">
-        <v>0.02957398399788779</v>
+        <v>0.02386147113512077</v>
       </c>
       <c r="E101">
-        <v>0.02419416240688343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01393448168957665</v>
+      </c>
+      <c r="F101">
+        <v>0.0362566787825554</v>
+      </c>
+      <c r="G101">
+        <v>-0.01566608044936896</v>
+      </c>
+      <c r="H101">
+        <v>0.06466909731003204</v>
+      </c>
+      <c r="I101">
+        <v>0.04439323868697383</v>
+      </c>
+      <c r="J101">
+        <v>0.01199329554890091</v>
+      </c>
+      <c r="K101">
+        <v>0.03903731760501544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
